--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F1F07C-4625-41D3-A045-C94646331F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4255A4-E4A4-4E4C-877E-EDFCB7729BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2487,10 +2487,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0723h12,S2b0725h08,S2b0726h08,S2b0727h10,S2b0729h08,S2b0729h09,S3aH2,S4c1103h10,S4c1104h09,S4c1104h10,S1aH5,S2aH4,S2aH5,S2b0725h10,S2b0725h11,S3c1029h17,S3c1030h09,S3c1031h17,S4c1102h09,S4c1103h09,S4c1103h14,S4c1104h07,S5aH2,S5aH5,S2aH7,S2b0724h10,S2b0728h08,S2b0728h12,S2b0728h13,S2b0729h07,S3aH4,S3c1029h15,S3c1029h18,S3c1031h11,S3c1031h15,S4aH3,S4aH4,S4c1101h08,S4c1104h08,S4c1104h13,S4c1104h17,S2b0723h10,S2b0723h11,S2b0723h14,S2b0727h13,S2b0728h07,S2b0728h14,S2b0729h13,S2b0729h16,S2b0729h17,S3c1029h14,S3c1029h16,S3c1030h13,S4aH2,S4c1104h16,S2b0724h08,S2b0724h11,S2b0726h16,S2b0727h14,S2b0728h18,S3aH3,S4c1101h18,S4c1103h18,S1aH6,S2b0723h15,S2b0724h07,S2b0725h16,S2b0726h15,S2b0729h11,S3c1030h07,S3c1031h10,S4c1102h12,S4c1103h07,S4c1103h15,S2aH6,S2b0723h07,S2b0724h18,S2b0726h07,S2b0726h13,S2b0727h07,S2b0728h10,S2b0729h12,S3aH5,S3c1030h10,S3c1031h12,S3c1031h16,S4c1103h17,S5aH3,S2b0723h18,S2b0727h15,S2b0729h18,S3aH7,S3c1029h09,S3c1029h10,S3c1029h12,S3c1030h12,S4c1102h18,S4c1103h13,S2b0724h13,S2b0726h11,S2b0726h12,S2b0727h17,S2b0728h17,S3c1030h08,S4c1101h13,S4c1101h16,S4c1101h17,S4c1102h07,S4c1102h10,S4c1103h16,S1aH2,S1aH7,S2aH3,S2b0724h15,S2b0726h18,S2b0727h12,S2b0727h16,S2b0727h18,S2b0729h10,S3aH6,S3c1029h13,S4aH7,S4c1102h15,S4c1103h11,S5aH6,S5aH7,S2b0723h16,S2b0723h17,S2b0724h16,S2b0725h07,S2b0725h12,S2b0725h17,S2b0726h10,S2b0726h17,S3c1029h07,S3c1030h15,S3c1031h07,S4c1101h11,S4c1101h15,S4c1102h14,S1aH3,S2b0724h12,S2b0724h17,S2b0725h13,S2b0726h14,S2b0728h15,S3c1030h11,S3c1030h16,S4c1101h10,S4c1101h14,S4c1102h11,S4c1102h16,S4c1103h08,S4c1103h12,S1aH4,S2aH2,S2b0724h14,S2b0725h09,S2b0725h14,S2b0725h15,S2b0725h18,S2b0727h08,S2b0727h11,S3c1030h14,S3c1030h17,S3c1030h18,S4aH6,S4c1102h08,S2b0728h09,S2b0728h11,S3c1029h08,S3c1029h11,S3c1031h09,S3c1031h14,S4aH5,S4c1101h07,S4c1101h09,S4c1101h12,S4c1102h13,S4c1104h12,S4c1104h14,S2b0723h13,S2b0726h09,S2b0727h09,S4c1104h18,S5aH4,S2b0723h08,S2b0723h09,S2b0724h09,S2b0728h16,S2b0729h14,S2b0729h15,S3c1031h08,S3c1031h13,S3c1031h18,S4c1102h17,S4c1104h11,S4c1104h15</t>
-  </si>
-  <si>
-    <t>S2b0724h03,S2b0724h05,S2b0727h19,S2b0727h21,S2b0728h21,S3aH8,S3c1031h19,S4c1101h04,S4c1103h19,S2b0724h01,S2b0725h23,S2b0729h21,S3c1029h03,S3c1031h02,S4c1103h01,S4c1103h20,S4c1103h23,S2b0723h24,S2b0725h19,S2b0725h20,S2b0726h23,S3c1029h19,S3c1029h24,S3c1030h20,S3c1031h22,S4c1101h01,S4c1101h06,S4c1101h22,S2aH1,S2b0723h22,S2b0723h23,S2b0724h06,S2b0726h22,S2b0727h03,S3c1029h21,S3c1030h04,S3c1030h06,S3c1030h23,S3c1031h06,S4c1102h05,S4c1102h21,S4c1104h19,S5aH8,S2b0724h19,S2b0726h06,S2b0726h19,S2b0726h21,S2b0728h02,S2b0728h20,S2b0728h24,S2b0729h05,S3c1030h02,S4c1102h06,S4c1102h19,S4c1102h20,S4c1103h22,S2b0727h04,S2b0727h24,S2b0729h06,S2b0729h24,S3c1029h20,S3c1031h03,S3c1031h24,S4c1101h05,S4c1103h06,S1aH8,S2b0723h02,S2b0723h04,S2b0724h23,S2b0725h01,S2b0725h02,S2b0726h20,S2b0728h19,S2b0728h22,S2b0729h03,S2b0729h23,S3c1031h20,S4c1101h03,S4c1104h22,S4c1104h23,S5aH1,S2aH8,S2b0727h23,S3c1030h03,S4c1101h20,S4c1102h24,S4c1104h20,S2b0723h01,S2b0723h19,S2b0724h20,S2b0724h21,S2b0724h22,S2b0728h04,S3c1029h06,S4aH8,S4c1102h01,S4c1102h02,S4c1102h03,S4c1103h04,S2b0723h20,S2b0724h02,S2b0725h03,S2b0725h05,S2b0726h02,S2b0727h06,S2b0727h20,S2b0728h06,S3c1030h01,S3c1030h05,S4c1101h23,S1aH1,S2b0726h04,S2b0726h05,S2b0728h23,S2b0729h04,S3c1029h01,S3c1029h22,S3c1030h24,S3c1031h01,S3c1031h23,S4c1104h24,S2b0723h05,S2b0724h04,S2b0726h01,S2b0728h03,S2b0729h19,S4c1102h04,S4c1103h02,S4c1103h03,S4c1103h05,S4c1103h21,S4c1103h24,S4c1104h03,S2b0723h21,S2b0724h24,S2b0725h04,S2b0727h01,S2b0727h02,S2b0727h05,S2b0728h05,S3c1029h04,S3c1030h21,S4aH1,S4c1101h19,S4c1104h02,S4c1104h21,S2b0725h06,S2b0725h22,S2b0725h24,S2b0726h03,S2b0729h02,S3c1029h05,S3c1029h23,S3c1030h22,S3c1031h04,S3c1031h05,S3c1031h21,S4c1101h21,S4c1104h01,S4c1104h04,S4c1104h05,S2b0723h06,S2b0727h22,S2b0728h01,S2b0729h22,S3c1029h02,S3c1030h19,S4c1101h02,S4c1101h24,S4c1102h23,S4c1104h06,S2b0723h03,S2b0725h21,S2b0726h24,S2b0729h01,S2b0729h20,S3aH1,S4c1102h22</t>
+    <t>S2b0723h10,S2b0723h11,S2b0723h14,S2b0727h13,S2b0728h07,S2b0728h14,S2b0729h13,S2b0729h16,S2b0729h17,S3c1029h14,S3c1029h16,S3c1030h13,S4aH2,S4c1104h16,S2b0724h13,S2b0726h11,S2b0726h12,S2b0727h17,S2b0728h17,S3c1030h08,S4c1101h13,S4c1101h16,S4c1101h17,S4c1102h07,S4c1102h10,S4c1103h16,S1aH5,S2aH4,S2aH5,S2b0725h10,S2b0725h11,S3c1029h17,S3c1030h09,S3c1031h17,S4c1102h09,S4c1103h09,S4c1103h14,S4c1104h07,S5aH2,S5aH5,S2b0724h08,S2b0724h11,S2b0726h16,S2b0727h14,S2b0728h18,S3aH3,S4c1101h18,S4c1103h18,S2b0723h18,S2b0727h15,S2b0729h18,S3aH7,S3c1029h09,S3c1029h10,S3c1029h12,S3c1030h12,S4c1102h18,S4c1103h13,S1aH6,S2b0723h15,S2b0724h07,S2b0725h16,S2b0726h15,S2b0729h11,S3c1030h07,S3c1031h10,S4c1102h12,S4c1103h07,S4c1103h15,S1aH3,S2b0724h12,S2b0724h17,S2b0725h13,S2b0726h14,S2b0728h15,S3c1030h11,S3c1030h16,S4c1101h10,S4c1101h14,S4c1102h11,S4c1102h16,S4c1103h08,S4c1103h12,S2b0728h09,S2b0728h11,S3c1029h08,S3c1029h11,S3c1031h09,S3c1031h14,S4aH5,S4c1101h07,S4c1101h09,S4c1101h12,S4c1102h13,S4c1104h12,S4c1104h14,S2b0723h16,S2b0723h17,S2b0724h16,S2b0725h07,S2b0725h12,S2b0725h17,S2b0726h10,S2b0726h17,S3c1029h07,S3c1030h15,S3c1031h07,S4c1101h11,S4c1101h15,S4c1102h14,S1aH4,S2aH2,S2b0724h14,S2b0725h09,S2b0725h14,S2b0725h15,S2b0725h18,S2b0727h08,S2b0727h11,S3c1030h14,S3c1030h17,S3c1030h18,S4aH6,S4c1102h08,S2aH6,S2b0723h07,S2b0724h18,S2b0726h07,S2b0726h13,S2b0727h07,S2b0728h10,S2b0729h12,S3aH5,S3c1030h10,S3c1031h12,S3c1031h16,S4c1103h17,S5aH3,S2b0723h13,S2b0726h09,S2b0727h09,S4c1104h18,S5aH4,S1aH2,S1aH7,S2aH3,S2b0724h15,S2b0726h18,S2b0727h12,S2b0727h16,S2b0727h18,S2b0729h10,S3aH6,S3c1029h13,S4aH7,S4c1102h15,S4c1103h11,S5aH6,S5aH7,S2aH7,S2b0724h10,S2b0728h08,S2b0728h12,S2b0728h13,S2b0729h07,S3aH4,S3c1029h15,S3c1029h18,S3c1031h11,S3c1031h15,S4aH3,S4aH4,S4c1101h08,S4c1104h08,S4c1104h13,S4c1104h17,S2b0723h12,S2b0725h08,S2b0726h08,S2b0727h10,S2b0729h08,S2b0729h09,S3aH2,S4c1103h10,S4c1104h09,S4c1104h10,S2b0723h08,S2b0723h09,S2b0724h09,S2b0728h16,S2b0729h14,S2b0729h15,S3c1031h08,S3c1031h13,S3c1031h18,S4c1102h17,S4c1104h11,S4c1104h15</t>
+  </si>
+  <si>
+    <t>S2aH1,S2b0723h22,S2b0723h23,S2b0724h06,S2b0726h22,S2b0727h03,S3c1029h21,S3c1030h04,S3c1030h06,S3c1030h23,S3c1031h06,S4c1102h05,S4c1102h21,S4c1104h19,S5aH8,S2b0723h01,S2b0723h19,S2b0724h20,S2b0724h21,S2b0724h22,S2b0728h04,S3c1029h06,S4aH8,S4c1102h01,S4c1102h02,S4c1102h03,S4c1103h04,S2b0724h01,S2b0725h23,S2b0729h21,S3c1029h03,S3c1031h02,S4c1103h01,S4c1103h20,S4c1103h23,S2b0724h19,S2b0726h06,S2b0726h19,S2b0726h21,S2b0728h02,S2b0728h20,S2b0728h24,S2b0729h05,S3c1030h02,S4c1102h06,S4c1102h19,S4c1102h20,S4c1103h22,S2aH8,S2b0727h23,S3c1030h03,S4c1101h20,S4c1102h24,S4c1104h20,S2b0727h04,S2b0727h24,S2b0729h06,S2b0729h24,S3c1029h20,S3c1031h03,S3c1031h24,S4c1101h05,S4c1103h06,S2b0723h05,S2b0724h04,S2b0726h01,S2b0728h03,S2b0729h19,S4c1102h04,S4c1103h02,S4c1103h03,S4c1103h05,S4c1103h21,S4c1103h24,S4c1104h03,S2b0725h06,S2b0725h22,S2b0725h24,S2b0726h03,S2b0729h02,S3c1029h05,S3c1029h23,S3c1030h22,S3c1031h04,S3c1031h05,S3c1031h21,S4c1101h21,S4c1104h01,S4c1104h04,S4c1104h05,S1aH1,S2b0726h04,S2b0726h05,S2b0728h23,S2b0729h04,S3c1029h01,S3c1029h22,S3c1030h24,S3c1031h01,S3c1031h23,S4c1104h24,S2b0723h21,S2b0724h24,S2b0725h04,S2b0727h01,S2b0727h02,S2b0727h05,S2b0728h05,S3c1029h04,S3c1030h21,S4aH1,S4c1101h19,S4c1104h02,S4c1104h21,S1aH8,S2b0723h02,S2b0723h04,S2b0724h23,S2b0725h01,S2b0725h02,S2b0726h20,S2b0728h19,S2b0728h22,S2b0729h03,S2b0729h23,S3c1031h20,S4c1101h03,S4c1104h22,S4c1104h23,S5aH1,S2b0723h06,S2b0727h22,S2b0728h01,S2b0729h22,S3c1029h02,S3c1030h19,S4c1101h02,S4c1101h24,S4c1102h23,S4c1104h06,S2b0723h20,S2b0724h02,S2b0725h03,S2b0725h05,S2b0726h02,S2b0727h06,S2b0727h20,S2b0728h06,S3c1030h01,S3c1030h05,S4c1101h23,S2b0723h24,S2b0725h19,S2b0725h20,S2b0726h23,S3c1029h19,S3c1029h24,S3c1030h20,S3c1031h22,S4c1101h01,S4c1101h06,S4c1101h22,S2b0724h03,S2b0724h05,S2b0727h19,S2b0727h21,S2b0728h21,S3aH8,S3c1031h19,S4c1101h04,S4c1103h19,S2b0723h03,S2b0725h21,S2b0726h24,S2b0729h01,S2b0729h20,S3aH1,S4c1102h22</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2b0724h03,S2b0724h05,S2b0727h19,S2b0727h21,S2b0728h21,S3aH8,S3c1031h19,S4c1101h04,S4c1103h19,S2b0724h01,S2b0725h23,S2b0729h21,S3c1029h03,S3c1031h02,S4c1103h01,S4c1103h20,S4c1103h23,S2b0723h24,S2b0725h19,S2b0725h20,S2b0726h23,S3c1029h19,S3c1029h24,S3c1030h20,S3c1031h22,S4c1101h01,S4c1101h06,S4c1101h22,S2aH1,S2b0723h22,S2b0723h23,S2b0724h06,S2b0726h22,S2b0727h03,S3c1029h21,S3c1030h04,S3c1030h06,S3c1030h23,S3c1031h06,S4c1102h05,S4c1102h21,S4c1104h19,S5aH8,S2b0724h19,S2b0726h06,S2b0726h19,S2b0726h21,S2b0728h02,S2b0728h20,S2b0728h24,S2b0729h05,S3c1030h02,S4c1102h06,S4c1102h19,S4c1102h20,S4c1103h22,S2b0727h04,S2b0727h24,S2b0729h06,S2b0729h24,S3c1029h20,S3c1031h03,S3c1031h24,S4c1101h05,S4c1103h06,S1aH8,S2b0723h02,S2b0723h04,S2b0724h23,S2b0725h01,S2b0725h02,S2b0726h20,S2b0728h19,S2b0728h22,S2b0729h03,S2b0729h23,S3c1031h20,S4c1101h03,S4c1104h22,S4c1104h23,S5aH1,S2aH8,S2b0727h23,S3c1030h03,S4c1101h20,S4c1102h24,S4c1104h20,S2b0723h01,S2b0723h19,S2b0724h20,S2b0724h21,S2b0724h22,S2b0728h04,S3c1029h06,S4aH8,S4c1102h01,S4c1102h02,S4c1102h03,S4c1103h04,S2b0723h20,S2b0724h02,S2b0725h03,S2b0725h05,S2b0726h02,S2b0727h06,S2b0727h20,S2b0728h06,S3c1030h01,S3c1030h05,S4c1101h23,S1aH1,S2b0726h04,S2b0726h05,S2b0728h23,S2b0729h04,S3c1029h01,S3c1029h22,S3c1030h24,S3c1031h01,S3c1031h23,S4c1104h24,S2b0723h05,S2b0724h04,S2b0726h01,S2b0728h03,S2b0729h19,S4c1102h04,S4c1103h02,S4c1103h03,S4c1103h05,S4c1103h21,S4c1103h24,S4c1104h03,S2b0723h21,S2b0724h24,S2b0725h04,S2b0727h01,S2b0727h02,S2b0727h05,S2b0728h05,S3c1029h04,S3c1030h21,S4aH1,S4c1101h19,S4c1104h02,S4c1104h21,S2b0725h06,S2b0725h22,S2b0725h24,S2b0726h03,S2b0729h02,S3c1029h05,S3c1029h23,S3c1030h22,S3c1031h04,S3c1031h05,S3c1031h21,S4c1101h21,S4c1104h01,S4c1104h04,S4c1104h05,S2b0723h06,S2b0727h22,S2b0728h01,S2b0729h22,S3c1029h02,S3c1030h19,S4c1101h02,S4c1101h24,S4c1102h23,S4c1104h06,S2b0723h03,S2b0725h21,S2b0726h24,S2b0729h01,S2b0729h20,S3aH1,S4c1102h22</v>
+        <v>S2aH1,S2b0723h22,S2b0723h23,S2b0724h06,S2b0726h22,S2b0727h03,S3c1029h21,S3c1030h04,S3c1030h06,S3c1030h23,S3c1031h06,S4c1102h05,S4c1102h21,S4c1104h19,S5aH8,S2b0723h01,S2b0723h19,S2b0724h20,S2b0724h21,S2b0724h22,S2b0728h04,S3c1029h06,S4aH8,S4c1102h01,S4c1102h02,S4c1102h03,S4c1103h04,S2b0724h01,S2b0725h23,S2b0729h21,S3c1029h03,S3c1031h02,S4c1103h01,S4c1103h20,S4c1103h23,S2b0724h19,S2b0726h06,S2b0726h19,S2b0726h21,S2b0728h02,S2b0728h20,S2b0728h24,S2b0729h05,S3c1030h02,S4c1102h06,S4c1102h19,S4c1102h20,S4c1103h22,S2aH8,S2b0727h23,S3c1030h03,S4c1101h20,S4c1102h24,S4c1104h20,S2b0727h04,S2b0727h24,S2b0729h06,S2b0729h24,S3c1029h20,S3c1031h03,S3c1031h24,S4c1101h05,S4c1103h06,S2b0723h05,S2b0724h04,S2b0726h01,S2b0728h03,S2b0729h19,S4c1102h04,S4c1103h02,S4c1103h03,S4c1103h05,S4c1103h21,S4c1103h24,S4c1104h03,S2b0725h06,S2b0725h22,S2b0725h24,S2b0726h03,S2b0729h02,S3c1029h05,S3c1029h23,S3c1030h22,S3c1031h04,S3c1031h05,S3c1031h21,S4c1101h21,S4c1104h01,S4c1104h04,S4c1104h05,S1aH1,S2b0726h04,S2b0726h05,S2b0728h23,S2b0729h04,S3c1029h01,S3c1029h22,S3c1030h24,S3c1031h01,S3c1031h23,S4c1104h24,S2b0723h21,S2b0724h24,S2b0725h04,S2b0727h01,S2b0727h02,S2b0727h05,S2b0728h05,S3c1029h04,S3c1030h21,S4aH1,S4c1101h19,S4c1104h02,S4c1104h21,S1aH8,S2b0723h02,S2b0723h04,S2b0724h23,S2b0725h01,S2b0725h02,S2b0726h20,S2b0728h19,S2b0728h22,S2b0729h03,S2b0729h23,S3c1031h20,S4c1101h03,S4c1104h22,S4c1104h23,S5aH1,S2b0723h06,S2b0727h22,S2b0728h01,S2b0729h22,S3c1029h02,S3c1030h19,S4c1101h02,S4c1101h24,S4c1102h23,S4c1104h06,S2b0723h20,S2b0724h02,S2b0725h03,S2b0725h05,S2b0726h02,S2b0727h06,S2b0727h20,S2b0728h06,S3c1030h01,S3c1030h05,S4c1101h23,S2b0723h24,S2b0725h19,S2b0725h20,S2b0726h23,S3c1029h19,S3c1029h24,S3c1030h20,S3c1031h22,S4c1101h01,S4c1101h06,S4c1101h22,S2b0724h03,S2b0724h05,S2b0727h19,S2b0727h21,S2b0728h21,S3aH8,S3c1031h19,S4c1101h04,S4c1103h19,S2b0723h03,S2b0725h21,S2b0726h24,S2b0729h01,S2b0729h20,S3aH1,S4c1102h22</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0723h12,S2b0725h08,S2b0726h08,S2b0727h10,S2b0729h08,S2b0729h09,S3aH2,S4c1103h10,S4c1104h09,S4c1104h10,S1aH5,S2aH4,S2aH5,S2b0725h10,S2b0725h11,S3c1029h17,S3c1030h09,S3c1031h17,S4c1102h09,S4c1103h09,S4c1103h14,S4c1104h07,S5aH2,S5aH5,S2aH7,S2b0724h10,S2b0728h08,S2b0728h12,S2b0728h13,S2b0729h07,S3aH4,S3c1029h15,S3c1029h18,S3c1031h11,S3c1031h15,S4aH3,S4aH4,S4c1101h08,S4c1104h08,S4c1104h13,S4c1104h17,S2b0723h10,S2b0723h11,S2b0723h14,S2b0727h13,S2b0728h07,S2b0728h14,S2b0729h13,S2b0729h16,S2b0729h17,S3c1029h14,S3c1029h16,S3c1030h13,S4aH2,S4c1104h16,S2b0724h08,S2b0724h11,S2b0726h16,S2b0727h14,S2b0728h18,S3aH3,S4c1101h18,S4c1103h18,S1aH6,S2b0723h15,S2b0724h07,S2b0725h16,S2b0726h15,S2b0729h11,S3c1030h07,S3c1031h10,S4c1102h12,S4c1103h07,S4c1103h15,S2aH6,S2b0723h07,S2b0724h18,S2b0726h07,S2b0726h13,S2b0727h07,S2b0728h10,S2b0729h12,S3aH5,S3c1030h10,S3c1031h12,S3c1031h16,S4c1103h17,S5aH3,S2b0723h18,S2b0727h15,S2b0729h18,S3aH7,S3c1029h09,S3c1029h10,S3c1029h12,S3c1030h12,S4c1102h18,S4c1103h13,S2b0724h13,S2b0726h11,S2b0726h12,S2b0727h17,S2b0728h17,S3c1030h08,S4c1101h13,S4c1101h16,S4c1101h17,S4c1102h07,S4c1102h10,S4c1103h16,S1aH2,S1aH7,S2aH3,S2b0724h15,S2b0726h18,S2b0727h12,S2b0727h16,S2b0727h18,S2b0729h10,S3aH6,S3c1029h13,S4aH7,S4c1102h15,S4c1103h11,S5aH6,S5aH7,S2b0723h16,S2b0723h17,S2b0724h16,S2b0725h07,S2b0725h12,S2b0725h17,S2b0726h10,S2b0726h17,S3c1029h07,S3c1030h15,S3c1031h07,S4c1101h11,S4c1101h15,S4c1102h14,S1aH3,S2b0724h12,S2b0724h17,S2b0725h13,S2b0726h14,S2b0728h15,S3c1030h11,S3c1030h16,S4c1101h10,S4c1101h14,S4c1102h11,S4c1102h16,S4c1103h08,S4c1103h12,S1aH4,S2aH2,S2b0724h14,S2b0725h09,S2b0725h14,S2b0725h15,S2b0725h18,S2b0727h08,S2b0727h11,S3c1030h14,S3c1030h17,S3c1030h18,S4aH6,S4c1102h08,S2b0728h09,S2b0728h11,S3c1029h08,S3c1029h11,S3c1031h09,S3c1031h14,S4aH5,S4c1101h07,S4c1101h09,S4c1101h12,S4c1102h13,S4c1104h12,S4c1104h14,S2b0723h13,S2b0726h09,S2b0727h09,S4c1104h18,S5aH4,S2b0723h08,S2b0723h09,S2b0724h09,S2b0728h16,S2b0729h14,S2b0729h15,S3c1031h08,S3c1031h13,S3c1031h18,S4c1102h17,S4c1104h11,S4c1104h15</v>
+        <v>S2b0723h10,S2b0723h11,S2b0723h14,S2b0727h13,S2b0728h07,S2b0728h14,S2b0729h13,S2b0729h16,S2b0729h17,S3c1029h14,S3c1029h16,S3c1030h13,S4aH2,S4c1104h16,S2b0724h13,S2b0726h11,S2b0726h12,S2b0727h17,S2b0728h17,S3c1030h08,S4c1101h13,S4c1101h16,S4c1101h17,S4c1102h07,S4c1102h10,S4c1103h16,S1aH5,S2aH4,S2aH5,S2b0725h10,S2b0725h11,S3c1029h17,S3c1030h09,S3c1031h17,S4c1102h09,S4c1103h09,S4c1103h14,S4c1104h07,S5aH2,S5aH5,S2b0724h08,S2b0724h11,S2b0726h16,S2b0727h14,S2b0728h18,S3aH3,S4c1101h18,S4c1103h18,S2b0723h18,S2b0727h15,S2b0729h18,S3aH7,S3c1029h09,S3c1029h10,S3c1029h12,S3c1030h12,S4c1102h18,S4c1103h13,S1aH6,S2b0723h15,S2b0724h07,S2b0725h16,S2b0726h15,S2b0729h11,S3c1030h07,S3c1031h10,S4c1102h12,S4c1103h07,S4c1103h15,S1aH3,S2b0724h12,S2b0724h17,S2b0725h13,S2b0726h14,S2b0728h15,S3c1030h11,S3c1030h16,S4c1101h10,S4c1101h14,S4c1102h11,S4c1102h16,S4c1103h08,S4c1103h12,S2b0728h09,S2b0728h11,S3c1029h08,S3c1029h11,S3c1031h09,S3c1031h14,S4aH5,S4c1101h07,S4c1101h09,S4c1101h12,S4c1102h13,S4c1104h12,S4c1104h14,S2b0723h16,S2b0723h17,S2b0724h16,S2b0725h07,S2b0725h12,S2b0725h17,S2b0726h10,S2b0726h17,S3c1029h07,S3c1030h15,S3c1031h07,S4c1101h11,S4c1101h15,S4c1102h14,S1aH4,S2aH2,S2b0724h14,S2b0725h09,S2b0725h14,S2b0725h15,S2b0725h18,S2b0727h08,S2b0727h11,S3c1030h14,S3c1030h17,S3c1030h18,S4aH6,S4c1102h08,S2aH6,S2b0723h07,S2b0724h18,S2b0726h07,S2b0726h13,S2b0727h07,S2b0728h10,S2b0729h12,S3aH5,S3c1030h10,S3c1031h12,S3c1031h16,S4c1103h17,S5aH3,S2b0723h13,S2b0726h09,S2b0727h09,S4c1104h18,S5aH4,S1aH2,S1aH7,S2aH3,S2b0724h15,S2b0726h18,S2b0727h12,S2b0727h16,S2b0727h18,S2b0729h10,S3aH6,S3c1029h13,S4aH7,S4c1102h15,S4c1103h11,S5aH6,S5aH7,S2aH7,S2b0724h10,S2b0728h08,S2b0728h12,S2b0728h13,S2b0729h07,S3aH4,S3c1029h15,S3c1029h18,S3c1031h11,S3c1031h15,S4aH3,S4aH4,S4c1101h08,S4c1104h08,S4c1104h13,S4c1104h17,S2b0723h12,S2b0725h08,S2b0726h08,S2b0727h10,S2b0729h08,S2b0729h09,S3aH2,S4c1103h10,S4c1104h09,S4c1104h10,S2b0723h08,S2b0723h09,S2b0724h09,S2b0728h16,S2b0729h14,S2b0729h15,S3c1031h08,S3c1031h13,S3c1031h18,S4c1102h17,S4c1104h11,S4c1104h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3706,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E86D7F1-5F73-4B47-B942-A510EEF098B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2FA56C-6877-4898-8905-A67E7FBC9021}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6526,7 +6526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124BC79F-8E15-49F9-88F0-C531F8A29AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23A80E0-FA1E-4A73-A718-5BAAEDA7FD67}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6640,10 +6640,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.26113640777746605</v>
+        <v>0.51636850169403747</v>
       </c>
       <c r="O5" t="s">
         <v>822</v>
@@ -6675,10 +6675,10 @@
         <v>434</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N6">
-        <v>0.2917974060726386</v>
+        <v>5.9017242495522128E-2</v>
       </c>
       <c r="O6" t="s">
         <v>822</v>
@@ -6710,10 +6710,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>5.9017242495522128E-2</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O7" t="s">
         <v>822</v>
@@ -6745,10 +6745,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N8">
-        <v>0.51636850169403747</v>
+        <v>0.2917974060726386</v>
       </c>
       <c r="O8" t="s">
         <v>822</v>
@@ -16406,7 +16406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3862D44F-2060-48A7-913D-17AFC6120F2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35735FB9-7577-40DF-BC30-99B8B6E3DAAA}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4255A4-E4A4-4E4C-877E-EDFCB7729BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97321EF-4C57-4277-BCA2-B633C58C25EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2487,10 +2487,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2b0723h10,S2b0723h11,S2b0723h14,S2b0727h13,S2b0728h07,S2b0728h14,S2b0729h13,S2b0729h16,S2b0729h17,S3c1029h14,S3c1029h16,S3c1030h13,S4aH2,S4c1104h16,S2b0724h13,S2b0726h11,S2b0726h12,S2b0727h17,S2b0728h17,S3c1030h08,S4c1101h13,S4c1101h16,S4c1101h17,S4c1102h07,S4c1102h10,S4c1103h16,S1aH5,S2aH4,S2aH5,S2b0725h10,S2b0725h11,S3c1029h17,S3c1030h09,S3c1031h17,S4c1102h09,S4c1103h09,S4c1103h14,S4c1104h07,S5aH2,S5aH5,S2b0724h08,S2b0724h11,S2b0726h16,S2b0727h14,S2b0728h18,S3aH3,S4c1101h18,S4c1103h18,S2b0723h18,S2b0727h15,S2b0729h18,S3aH7,S3c1029h09,S3c1029h10,S3c1029h12,S3c1030h12,S4c1102h18,S4c1103h13,S1aH6,S2b0723h15,S2b0724h07,S2b0725h16,S2b0726h15,S2b0729h11,S3c1030h07,S3c1031h10,S4c1102h12,S4c1103h07,S4c1103h15,S1aH3,S2b0724h12,S2b0724h17,S2b0725h13,S2b0726h14,S2b0728h15,S3c1030h11,S3c1030h16,S4c1101h10,S4c1101h14,S4c1102h11,S4c1102h16,S4c1103h08,S4c1103h12,S2b0728h09,S2b0728h11,S3c1029h08,S3c1029h11,S3c1031h09,S3c1031h14,S4aH5,S4c1101h07,S4c1101h09,S4c1101h12,S4c1102h13,S4c1104h12,S4c1104h14,S2b0723h16,S2b0723h17,S2b0724h16,S2b0725h07,S2b0725h12,S2b0725h17,S2b0726h10,S2b0726h17,S3c1029h07,S3c1030h15,S3c1031h07,S4c1101h11,S4c1101h15,S4c1102h14,S1aH4,S2aH2,S2b0724h14,S2b0725h09,S2b0725h14,S2b0725h15,S2b0725h18,S2b0727h08,S2b0727h11,S3c1030h14,S3c1030h17,S3c1030h18,S4aH6,S4c1102h08,S2aH6,S2b0723h07,S2b0724h18,S2b0726h07,S2b0726h13,S2b0727h07,S2b0728h10,S2b0729h12,S3aH5,S3c1030h10,S3c1031h12,S3c1031h16,S4c1103h17,S5aH3,S2b0723h13,S2b0726h09,S2b0727h09,S4c1104h18,S5aH4,S1aH2,S1aH7,S2aH3,S2b0724h15,S2b0726h18,S2b0727h12,S2b0727h16,S2b0727h18,S2b0729h10,S3aH6,S3c1029h13,S4aH7,S4c1102h15,S4c1103h11,S5aH6,S5aH7,S2aH7,S2b0724h10,S2b0728h08,S2b0728h12,S2b0728h13,S2b0729h07,S3aH4,S3c1029h15,S3c1029h18,S3c1031h11,S3c1031h15,S4aH3,S4aH4,S4c1101h08,S4c1104h08,S4c1104h13,S4c1104h17,S2b0723h12,S2b0725h08,S2b0726h08,S2b0727h10,S2b0729h08,S2b0729h09,S3aH2,S4c1103h10,S4c1104h09,S4c1104h10,S2b0723h08,S2b0723h09,S2b0724h09,S2b0728h16,S2b0729h14,S2b0729h15,S3c1031h08,S3c1031h13,S3c1031h18,S4c1102h17,S4c1104h11,S4c1104h15</t>
-  </si>
-  <si>
-    <t>S2aH1,S2b0723h22,S2b0723h23,S2b0724h06,S2b0726h22,S2b0727h03,S3c1029h21,S3c1030h04,S3c1030h06,S3c1030h23,S3c1031h06,S4c1102h05,S4c1102h21,S4c1104h19,S5aH8,S2b0723h01,S2b0723h19,S2b0724h20,S2b0724h21,S2b0724h22,S2b0728h04,S3c1029h06,S4aH8,S4c1102h01,S4c1102h02,S4c1102h03,S4c1103h04,S2b0724h01,S2b0725h23,S2b0729h21,S3c1029h03,S3c1031h02,S4c1103h01,S4c1103h20,S4c1103h23,S2b0724h19,S2b0726h06,S2b0726h19,S2b0726h21,S2b0728h02,S2b0728h20,S2b0728h24,S2b0729h05,S3c1030h02,S4c1102h06,S4c1102h19,S4c1102h20,S4c1103h22,S2aH8,S2b0727h23,S3c1030h03,S4c1101h20,S4c1102h24,S4c1104h20,S2b0727h04,S2b0727h24,S2b0729h06,S2b0729h24,S3c1029h20,S3c1031h03,S3c1031h24,S4c1101h05,S4c1103h06,S2b0723h05,S2b0724h04,S2b0726h01,S2b0728h03,S2b0729h19,S4c1102h04,S4c1103h02,S4c1103h03,S4c1103h05,S4c1103h21,S4c1103h24,S4c1104h03,S2b0725h06,S2b0725h22,S2b0725h24,S2b0726h03,S2b0729h02,S3c1029h05,S3c1029h23,S3c1030h22,S3c1031h04,S3c1031h05,S3c1031h21,S4c1101h21,S4c1104h01,S4c1104h04,S4c1104h05,S1aH1,S2b0726h04,S2b0726h05,S2b0728h23,S2b0729h04,S3c1029h01,S3c1029h22,S3c1030h24,S3c1031h01,S3c1031h23,S4c1104h24,S2b0723h21,S2b0724h24,S2b0725h04,S2b0727h01,S2b0727h02,S2b0727h05,S2b0728h05,S3c1029h04,S3c1030h21,S4aH1,S4c1101h19,S4c1104h02,S4c1104h21,S1aH8,S2b0723h02,S2b0723h04,S2b0724h23,S2b0725h01,S2b0725h02,S2b0726h20,S2b0728h19,S2b0728h22,S2b0729h03,S2b0729h23,S3c1031h20,S4c1101h03,S4c1104h22,S4c1104h23,S5aH1,S2b0723h06,S2b0727h22,S2b0728h01,S2b0729h22,S3c1029h02,S3c1030h19,S4c1101h02,S4c1101h24,S4c1102h23,S4c1104h06,S2b0723h20,S2b0724h02,S2b0725h03,S2b0725h05,S2b0726h02,S2b0727h06,S2b0727h20,S2b0728h06,S3c1030h01,S3c1030h05,S4c1101h23,S2b0723h24,S2b0725h19,S2b0725h20,S2b0726h23,S3c1029h19,S3c1029h24,S3c1030h20,S3c1031h22,S4c1101h01,S4c1101h06,S4c1101h22,S2b0724h03,S2b0724h05,S2b0727h19,S2b0727h21,S2b0728h21,S3aH8,S3c1031h19,S4c1101h04,S4c1103h19,S2b0723h03,S2b0725h21,S2b0726h24,S2b0729h01,S2b0729h20,S3aH1,S4c1102h22</t>
+    <t>S1aH6,S2b0723h15,S2b0724h07,S2b0725h16,S2b0726h15,S2b0729h11,S3c1030h07,S3c1031h10,S4c1102h12,S4c1103h07,S4c1103h15,S2b0723h13,S2b0726h09,S2b0727h09,S4c1104h18,S5aH4,S2b0723h08,S2b0723h09,S2b0724h09,S2b0728h16,S2b0729h14,S2b0729h15,S3c1031h08,S3c1031h13,S3c1031h18,S4c1102h17,S4c1104h11,S4c1104h15,S2aH7,S2b0724h10,S2b0728h08,S2b0728h12,S2b0728h13,S2b0729h07,S3aH4,S3c1029h15,S3c1029h18,S3c1031h11,S3c1031h15,S4aH3,S4aH4,S4c1101h08,S4c1104h08,S4c1104h13,S4c1104h17,S2b0723h18,S2b0727h15,S2b0729h18,S3aH7,S3c1029h09,S3c1029h10,S3c1029h12,S3c1030h12,S4c1102h18,S4c1103h13,S2b0724h13,S2b0726h11,S2b0726h12,S2b0727h17,S2b0728h17,S3c1030h08,S4c1101h13,S4c1101h16,S4c1101h17,S4c1102h07,S4c1102h10,S4c1103h16,S1aH5,S2aH4,S2aH5,S2b0725h10,S2b0725h11,S3c1029h17,S3c1030h09,S3c1031h17,S4c1102h09,S4c1103h09,S4c1103h14,S4c1104h07,S5aH2,S5aH5,S2aH6,S2b0723h07,S2b0724h18,S2b0726h07,S2b0726h13,S2b0727h07,S2b0728h10,S2b0729h12,S3aH5,S3c1030h10,S3c1031h12,S3c1031h16,S4c1103h17,S5aH3,S2b0723h10,S2b0723h11,S2b0723h14,S2b0727h13,S2b0728h07,S2b0728h14,S2b0729h13,S2b0729h16,S2b0729h17,S3c1029h14,S3c1029h16,S3c1030h13,S4aH2,S4c1104h16,S2b0728h09,S2b0728h11,S3c1029h08,S3c1029h11,S3c1031h09,S3c1031h14,S4aH5,S4c1101h07,S4c1101h09,S4c1101h12,S4c1102h13,S4c1104h12,S4c1104h14,S1aH3,S2b0724h12,S2b0724h17,S2b0725h13,S2b0726h14,S2b0728h15,S3c1030h11,S3c1030h16,S4c1101h10,S4c1101h14,S4c1102h11,S4c1102h16,S4c1103h08,S4c1103h12,S2b0723h12,S2b0725h08,S2b0726h08,S2b0727h10,S2b0729h08,S2b0729h09,S3aH2,S4c1103h10,S4c1104h09,S4c1104h10,S2b0723h16,S2b0723h17,S2b0724h16,S2b0725h07,S2b0725h12,S2b0725h17,S2b0726h10,S2b0726h17,S3c1029h07,S3c1030h15,S3c1031h07,S4c1101h11,S4c1101h15,S4c1102h14,S2b0724h08,S2b0724h11,S2b0726h16,S2b0727h14,S2b0728h18,S3aH3,S4c1101h18,S4c1103h18,S1aH2,S1aH7,S2aH3,S2b0724h15,S2b0726h18,S2b0727h12,S2b0727h16,S2b0727h18,S2b0729h10,S3aH6,S3c1029h13,S4aH7,S4c1102h15,S4c1103h11,S5aH6,S5aH7,S1aH4,S2aH2,S2b0724h14,S2b0725h09,S2b0725h14,S2b0725h15,S2b0725h18,S2b0727h08,S2b0727h11,S3c1030h14,S3c1030h17,S3c1030h18,S4aH6,S4c1102h08</t>
+  </si>
+  <si>
+    <t>S2b0727h04,S2b0727h24,S2b0729h06,S2b0729h24,S3c1029h20,S3c1031h03,S3c1031h24,S4c1101h05,S4c1103h06,S2b0723h06,S2b0727h22,S2b0728h01,S2b0729h22,S3c1029h02,S3c1030h19,S4c1101h02,S4c1101h24,S4c1102h23,S4c1104h06,S2b0723h03,S2b0725h21,S2b0726h24,S2b0729h01,S2b0729h20,S3aH1,S4c1102h22,S2b0723h24,S2b0725h19,S2b0725h20,S2b0726h23,S3c1029h19,S3c1029h24,S3c1030h20,S3c1031h22,S4c1101h01,S4c1101h06,S4c1101h22,S2aH8,S2b0727h23,S3c1030h03,S4c1101h20,S4c1102h24,S4c1104h20,S2b0723h01,S2b0723h19,S2b0724h20,S2b0724h21,S2b0724h22,S2b0728h04,S3c1029h06,S4aH8,S4c1102h01,S4c1102h02,S4c1102h03,S4c1103h04,S2b0724h01,S2b0725h23,S2b0729h21,S3c1029h03,S3c1031h02,S4c1103h01,S4c1103h20,S4c1103h23,S1aH8,S2b0723h02,S2b0723h04,S2b0724h23,S2b0725h01,S2b0725h02,S2b0726h20,S2b0728h19,S2b0728h22,S2b0729h03,S2b0729h23,S3c1031h20,S4c1101h03,S4c1104h22,S4c1104h23,S5aH1,S2aH1,S2b0723h22,S2b0723h23,S2b0724h06,S2b0726h22,S2b0727h03,S3c1029h21,S3c1030h04,S3c1030h06,S3c1030h23,S3c1031h06,S4c1102h05,S4c1102h21,S4c1104h19,S5aH8,S2b0725h06,S2b0725h22,S2b0725h24,S2b0726h03,S2b0729h02,S3c1029h05,S3c1029h23,S3c1030h22,S3c1031h04,S3c1031h05,S3c1031h21,S4c1101h21,S4c1104h01,S4c1104h04,S4c1104h05,S2b0723h05,S2b0724h04,S2b0726h01,S2b0728h03,S2b0729h19,S4c1102h04,S4c1103h02,S4c1103h03,S4c1103h05,S4c1103h21,S4c1103h24,S4c1104h03,S2b0724h03,S2b0724h05,S2b0727h19,S2b0727h21,S2b0728h21,S3aH8,S3c1031h19,S4c1101h04,S4c1103h19,S1aH1,S2b0726h04,S2b0726h05,S2b0728h23,S2b0729h04,S3c1029h01,S3c1029h22,S3c1030h24,S3c1031h01,S3c1031h23,S4c1104h24,S2b0724h19,S2b0726h06,S2b0726h19,S2b0726h21,S2b0728h02,S2b0728h20,S2b0728h24,S2b0729h05,S3c1030h02,S4c1102h06,S4c1102h19,S4c1102h20,S4c1103h22,S2b0723h20,S2b0724h02,S2b0725h03,S2b0725h05,S2b0726h02,S2b0727h06,S2b0727h20,S2b0728h06,S3c1030h01,S3c1030h05,S4c1101h23,S2b0723h21,S2b0724h24,S2b0725h04,S2b0727h01,S2b0727h02,S2b0727h05,S2b0728h05,S3c1029h04,S3c1030h21,S4aH1,S4c1101h19,S4c1104h02,S4c1104h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S2b0723h22,S2b0723h23,S2b0724h06,S2b0726h22,S2b0727h03,S3c1029h21,S3c1030h04,S3c1030h06,S3c1030h23,S3c1031h06,S4c1102h05,S4c1102h21,S4c1104h19,S5aH8,S2b0723h01,S2b0723h19,S2b0724h20,S2b0724h21,S2b0724h22,S2b0728h04,S3c1029h06,S4aH8,S4c1102h01,S4c1102h02,S4c1102h03,S4c1103h04,S2b0724h01,S2b0725h23,S2b0729h21,S3c1029h03,S3c1031h02,S4c1103h01,S4c1103h20,S4c1103h23,S2b0724h19,S2b0726h06,S2b0726h19,S2b0726h21,S2b0728h02,S2b0728h20,S2b0728h24,S2b0729h05,S3c1030h02,S4c1102h06,S4c1102h19,S4c1102h20,S4c1103h22,S2aH8,S2b0727h23,S3c1030h03,S4c1101h20,S4c1102h24,S4c1104h20,S2b0727h04,S2b0727h24,S2b0729h06,S2b0729h24,S3c1029h20,S3c1031h03,S3c1031h24,S4c1101h05,S4c1103h06,S2b0723h05,S2b0724h04,S2b0726h01,S2b0728h03,S2b0729h19,S4c1102h04,S4c1103h02,S4c1103h03,S4c1103h05,S4c1103h21,S4c1103h24,S4c1104h03,S2b0725h06,S2b0725h22,S2b0725h24,S2b0726h03,S2b0729h02,S3c1029h05,S3c1029h23,S3c1030h22,S3c1031h04,S3c1031h05,S3c1031h21,S4c1101h21,S4c1104h01,S4c1104h04,S4c1104h05,S1aH1,S2b0726h04,S2b0726h05,S2b0728h23,S2b0729h04,S3c1029h01,S3c1029h22,S3c1030h24,S3c1031h01,S3c1031h23,S4c1104h24,S2b0723h21,S2b0724h24,S2b0725h04,S2b0727h01,S2b0727h02,S2b0727h05,S2b0728h05,S3c1029h04,S3c1030h21,S4aH1,S4c1101h19,S4c1104h02,S4c1104h21,S1aH8,S2b0723h02,S2b0723h04,S2b0724h23,S2b0725h01,S2b0725h02,S2b0726h20,S2b0728h19,S2b0728h22,S2b0729h03,S2b0729h23,S3c1031h20,S4c1101h03,S4c1104h22,S4c1104h23,S5aH1,S2b0723h06,S2b0727h22,S2b0728h01,S2b0729h22,S3c1029h02,S3c1030h19,S4c1101h02,S4c1101h24,S4c1102h23,S4c1104h06,S2b0723h20,S2b0724h02,S2b0725h03,S2b0725h05,S2b0726h02,S2b0727h06,S2b0727h20,S2b0728h06,S3c1030h01,S3c1030h05,S4c1101h23,S2b0723h24,S2b0725h19,S2b0725h20,S2b0726h23,S3c1029h19,S3c1029h24,S3c1030h20,S3c1031h22,S4c1101h01,S4c1101h06,S4c1101h22,S2b0724h03,S2b0724h05,S2b0727h19,S2b0727h21,S2b0728h21,S3aH8,S3c1031h19,S4c1101h04,S4c1103h19,S2b0723h03,S2b0725h21,S2b0726h24,S2b0729h01,S2b0729h20,S3aH1,S4c1102h22</v>
+        <v>S2b0727h04,S2b0727h24,S2b0729h06,S2b0729h24,S3c1029h20,S3c1031h03,S3c1031h24,S4c1101h05,S4c1103h06,S2b0723h06,S2b0727h22,S2b0728h01,S2b0729h22,S3c1029h02,S3c1030h19,S4c1101h02,S4c1101h24,S4c1102h23,S4c1104h06,S2b0723h03,S2b0725h21,S2b0726h24,S2b0729h01,S2b0729h20,S3aH1,S4c1102h22,S2b0723h24,S2b0725h19,S2b0725h20,S2b0726h23,S3c1029h19,S3c1029h24,S3c1030h20,S3c1031h22,S4c1101h01,S4c1101h06,S4c1101h22,S2aH8,S2b0727h23,S3c1030h03,S4c1101h20,S4c1102h24,S4c1104h20,S2b0723h01,S2b0723h19,S2b0724h20,S2b0724h21,S2b0724h22,S2b0728h04,S3c1029h06,S4aH8,S4c1102h01,S4c1102h02,S4c1102h03,S4c1103h04,S2b0724h01,S2b0725h23,S2b0729h21,S3c1029h03,S3c1031h02,S4c1103h01,S4c1103h20,S4c1103h23,S1aH8,S2b0723h02,S2b0723h04,S2b0724h23,S2b0725h01,S2b0725h02,S2b0726h20,S2b0728h19,S2b0728h22,S2b0729h03,S2b0729h23,S3c1031h20,S4c1101h03,S4c1104h22,S4c1104h23,S5aH1,S2aH1,S2b0723h22,S2b0723h23,S2b0724h06,S2b0726h22,S2b0727h03,S3c1029h21,S3c1030h04,S3c1030h06,S3c1030h23,S3c1031h06,S4c1102h05,S4c1102h21,S4c1104h19,S5aH8,S2b0725h06,S2b0725h22,S2b0725h24,S2b0726h03,S2b0729h02,S3c1029h05,S3c1029h23,S3c1030h22,S3c1031h04,S3c1031h05,S3c1031h21,S4c1101h21,S4c1104h01,S4c1104h04,S4c1104h05,S2b0723h05,S2b0724h04,S2b0726h01,S2b0728h03,S2b0729h19,S4c1102h04,S4c1103h02,S4c1103h03,S4c1103h05,S4c1103h21,S4c1103h24,S4c1104h03,S2b0724h03,S2b0724h05,S2b0727h19,S2b0727h21,S2b0728h21,S3aH8,S3c1031h19,S4c1101h04,S4c1103h19,S1aH1,S2b0726h04,S2b0726h05,S2b0728h23,S2b0729h04,S3c1029h01,S3c1029h22,S3c1030h24,S3c1031h01,S3c1031h23,S4c1104h24,S2b0724h19,S2b0726h06,S2b0726h19,S2b0726h21,S2b0728h02,S2b0728h20,S2b0728h24,S2b0729h05,S3c1030h02,S4c1102h06,S4c1102h19,S4c1102h20,S4c1103h22,S2b0723h20,S2b0724h02,S2b0725h03,S2b0725h05,S2b0726h02,S2b0727h06,S2b0727h20,S2b0728h06,S3c1030h01,S3c1030h05,S4c1101h23,S2b0723h21,S2b0724h24,S2b0725h04,S2b0727h01,S2b0727h02,S2b0727h05,S2b0728h05,S3c1029h04,S3c1030h21,S4aH1,S4c1101h19,S4c1104h02,S4c1104h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2b0723h10,S2b0723h11,S2b0723h14,S2b0727h13,S2b0728h07,S2b0728h14,S2b0729h13,S2b0729h16,S2b0729h17,S3c1029h14,S3c1029h16,S3c1030h13,S4aH2,S4c1104h16,S2b0724h13,S2b0726h11,S2b0726h12,S2b0727h17,S2b0728h17,S3c1030h08,S4c1101h13,S4c1101h16,S4c1101h17,S4c1102h07,S4c1102h10,S4c1103h16,S1aH5,S2aH4,S2aH5,S2b0725h10,S2b0725h11,S3c1029h17,S3c1030h09,S3c1031h17,S4c1102h09,S4c1103h09,S4c1103h14,S4c1104h07,S5aH2,S5aH5,S2b0724h08,S2b0724h11,S2b0726h16,S2b0727h14,S2b0728h18,S3aH3,S4c1101h18,S4c1103h18,S2b0723h18,S2b0727h15,S2b0729h18,S3aH7,S3c1029h09,S3c1029h10,S3c1029h12,S3c1030h12,S4c1102h18,S4c1103h13,S1aH6,S2b0723h15,S2b0724h07,S2b0725h16,S2b0726h15,S2b0729h11,S3c1030h07,S3c1031h10,S4c1102h12,S4c1103h07,S4c1103h15,S1aH3,S2b0724h12,S2b0724h17,S2b0725h13,S2b0726h14,S2b0728h15,S3c1030h11,S3c1030h16,S4c1101h10,S4c1101h14,S4c1102h11,S4c1102h16,S4c1103h08,S4c1103h12,S2b0728h09,S2b0728h11,S3c1029h08,S3c1029h11,S3c1031h09,S3c1031h14,S4aH5,S4c1101h07,S4c1101h09,S4c1101h12,S4c1102h13,S4c1104h12,S4c1104h14,S2b0723h16,S2b0723h17,S2b0724h16,S2b0725h07,S2b0725h12,S2b0725h17,S2b0726h10,S2b0726h17,S3c1029h07,S3c1030h15,S3c1031h07,S4c1101h11,S4c1101h15,S4c1102h14,S1aH4,S2aH2,S2b0724h14,S2b0725h09,S2b0725h14,S2b0725h15,S2b0725h18,S2b0727h08,S2b0727h11,S3c1030h14,S3c1030h17,S3c1030h18,S4aH6,S4c1102h08,S2aH6,S2b0723h07,S2b0724h18,S2b0726h07,S2b0726h13,S2b0727h07,S2b0728h10,S2b0729h12,S3aH5,S3c1030h10,S3c1031h12,S3c1031h16,S4c1103h17,S5aH3,S2b0723h13,S2b0726h09,S2b0727h09,S4c1104h18,S5aH4,S1aH2,S1aH7,S2aH3,S2b0724h15,S2b0726h18,S2b0727h12,S2b0727h16,S2b0727h18,S2b0729h10,S3aH6,S3c1029h13,S4aH7,S4c1102h15,S4c1103h11,S5aH6,S5aH7,S2aH7,S2b0724h10,S2b0728h08,S2b0728h12,S2b0728h13,S2b0729h07,S3aH4,S3c1029h15,S3c1029h18,S3c1031h11,S3c1031h15,S4aH3,S4aH4,S4c1101h08,S4c1104h08,S4c1104h13,S4c1104h17,S2b0723h12,S2b0725h08,S2b0726h08,S2b0727h10,S2b0729h08,S2b0729h09,S3aH2,S4c1103h10,S4c1104h09,S4c1104h10,S2b0723h08,S2b0723h09,S2b0724h09,S2b0728h16,S2b0729h14,S2b0729h15,S3c1031h08,S3c1031h13,S3c1031h18,S4c1102h17,S4c1104h11,S4c1104h15</v>
+        <v>S1aH6,S2b0723h15,S2b0724h07,S2b0725h16,S2b0726h15,S2b0729h11,S3c1030h07,S3c1031h10,S4c1102h12,S4c1103h07,S4c1103h15,S2b0723h13,S2b0726h09,S2b0727h09,S4c1104h18,S5aH4,S2b0723h08,S2b0723h09,S2b0724h09,S2b0728h16,S2b0729h14,S2b0729h15,S3c1031h08,S3c1031h13,S3c1031h18,S4c1102h17,S4c1104h11,S4c1104h15,S2aH7,S2b0724h10,S2b0728h08,S2b0728h12,S2b0728h13,S2b0729h07,S3aH4,S3c1029h15,S3c1029h18,S3c1031h11,S3c1031h15,S4aH3,S4aH4,S4c1101h08,S4c1104h08,S4c1104h13,S4c1104h17,S2b0723h18,S2b0727h15,S2b0729h18,S3aH7,S3c1029h09,S3c1029h10,S3c1029h12,S3c1030h12,S4c1102h18,S4c1103h13,S2b0724h13,S2b0726h11,S2b0726h12,S2b0727h17,S2b0728h17,S3c1030h08,S4c1101h13,S4c1101h16,S4c1101h17,S4c1102h07,S4c1102h10,S4c1103h16,S1aH5,S2aH4,S2aH5,S2b0725h10,S2b0725h11,S3c1029h17,S3c1030h09,S3c1031h17,S4c1102h09,S4c1103h09,S4c1103h14,S4c1104h07,S5aH2,S5aH5,S2aH6,S2b0723h07,S2b0724h18,S2b0726h07,S2b0726h13,S2b0727h07,S2b0728h10,S2b0729h12,S3aH5,S3c1030h10,S3c1031h12,S3c1031h16,S4c1103h17,S5aH3,S2b0723h10,S2b0723h11,S2b0723h14,S2b0727h13,S2b0728h07,S2b0728h14,S2b0729h13,S2b0729h16,S2b0729h17,S3c1029h14,S3c1029h16,S3c1030h13,S4aH2,S4c1104h16,S2b0728h09,S2b0728h11,S3c1029h08,S3c1029h11,S3c1031h09,S3c1031h14,S4aH5,S4c1101h07,S4c1101h09,S4c1101h12,S4c1102h13,S4c1104h12,S4c1104h14,S1aH3,S2b0724h12,S2b0724h17,S2b0725h13,S2b0726h14,S2b0728h15,S3c1030h11,S3c1030h16,S4c1101h10,S4c1101h14,S4c1102h11,S4c1102h16,S4c1103h08,S4c1103h12,S2b0723h12,S2b0725h08,S2b0726h08,S2b0727h10,S2b0729h08,S2b0729h09,S3aH2,S4c1103h10,S4c1104h09,S4c1104h10,S2b0723h16,S2b0723h17,S2b0724h16,S2b0725h07,S2b0725h12,S2b0725h17,S2b0726h10,S2b0726h17,S3c1029h07,S3c1030h15,S3c1031h07,S4c1101h11,S4c1101h15,S4c1102h14,S2b0724h08,S2b0724h11,S2b0726h16,S2b0727h14,S2b0728h18,S3aH3,S4c1101h18,S4c1103h18,S1aH2,S1aH7,S2aH3,S2b0724h15,S2b0726h18,S2b0727h12,S2b0727h16,S2b0727h18,S2b0729h10,S3aH6,S3c1029h13,S4aH7,S4c1102h15,S4c1103h11,S5aH6,S5aH7,S1aH4,S2aH2,S2b0724h14,S2b0725h09,S2b0725h14,S2b0725h15,S2b0725h18,S2b0727h08,S2b0727h11,S3c1030h14,S3c1030h17,S3c1030h18,S4aH6,S4c1102h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3706,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2FA56C-6877-4898-8905-A67E7FBC9021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DB54DF-E69D-4D12-9BC0-C2371B24A82E}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6526,7 +6526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23A80E0-FA1E-4A73-A718-5BAAEDA7FD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EAEC23-4047-4730-98A3-A6EFD7742839}">
   <dimension ref="B2:O379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6605,10 +6605,10 @@
         <v>434</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>7.1680441960335781E-2</v>
+        <v>0.2917974060726386</v>
       </c>
       <c r="O4" t="s">
         <v>822</v>
@@ -6640,10 +6640,10 @@
         <v>434</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.51636850169403747</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O5" t="s">
         <v>822</v>
@@ -6710,10 +6710,10 @@
         <v>434</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>0.26113640777746605</v>
+        <v>0.51636850169403747</v>
       </c>
       <c r="O7" t="s">
         <v>822</v>
@@ -6745,10 +6745,10 @@
         <v>434</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.2917974060726386</v>
+        <v>7.1680441960335781E-2</v>
       </c>
       <c r="O8" t="s">
         <v>822</v>
@@ -16406,7 +16406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35735FB9-7577-40DF-BC30-99B8B6E3DAAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89541E2-B44B-4A30-849D-ED1B34A86738}">
   <dimension ref="B2:O755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_weekly_stress.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_weekly_stress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885622FC-1747-4AC0-B250-59F18916B128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019D19D6-9973-478B-8AEA-CA417AEC4426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2508,10 +2508,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S5b0723h07,S5b0725h07,S5b0725h09,S5b0727h10,S5b0727h14,S5b0728h15,S5b0729h18,S6c1029h15,S6c1031h12,S6c1031h15,S6c1101h16,S6c1102h10,S6c1103h14,S4aH5,S5b0727h08,S5b0727h12,S5b0728h10,S5b0728h17,S5b0729h10,S5b0729h16,S5b0729h17,S6c1029h08,S6c1030h10,S6c1031h10,S6c1102h14,S6c1102h17,S6c1104h14,S5b0723h16,S5b0724h08,S5b0724h14,S5b0724h15,S5b0726h15,S5b0728h14,S6aH7,S6c1030h12,S6c1031h11,S6c1102h08,S5b0723h08,S5b0723h15,S5b0724h07,S5b0727h07,S5b0728h07,S6aH5,S6c1029h10,S6c1031h08,S6c1103h08,S6c1103h10,S6c1103h12,S6c1103h18,S3aH7,S5b0725h13,S5b0726h14,S5b0728h11,S5b0728h12,S5b0729h07,S6c1030h14,S6c1031h18,S6c1101h08,S6c1102h15,S6c1103h13,S6c1104h11,S5aH4,S5b0723h17,S5b0725h10,S5b0725h18,S5b0726h12,S5b0728h13,S6aH3,S6aH4,S6c1029h14,S6c1030h08,S6c1030h16,S6c1102h07,S6c1102h09,S6c1102h11,S6c1102h18,S6c1103h15,S6c1104h12,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0726h07,S5b0726h08,S5b0726h09,S5b0727h16,S5b0728h16,S6aH2,S6c1029h13,S6c1031h14,S6c1101h11,S6c1101h14,S6c1104h17,S3aH3,S5b0723h11,S5b0728h08,S5b0728h09,S5b0729h11,S6c1029h18,S6c1030h07,S6c1031h07,S6c1031h09,S6c1101h10,S6c1101h12,S6c1104h07,S6c1104h16,S3aH2,S5b0723h09,S5b0724h11,S5b0724h16,S5b0725h12,S5b0725h15,S5b0726h17,S5b0727h17,S5b0727h18,S5b0729h14,S6c1030h15,S6c1030h18,S6c1101h18,S6c1103h09,S6c1104h08,S6c1104h10,S5b0723h12,S5b0724h10,S5b0724h12,S5b0725h14,S5b0728h18,S6c1029h07,S6c1030h13,S6c1103h17,S1aH4,S2aH2,S4aH6,S5b0725h16,S5b0727h09,S5b0727h13,S5b0729h08,S6c1030h09,S6c1031h13,S6c1102h13,S6c1102h16,S6c1103h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0723h14,S5b0724h18,S5b0726h11,S5b0726h13,S5b0726h18,S5b0729h09,S5b0729h13,S6aH6,S6c1030h11,S6c1101h15,S6c1104h09,S2aH7,S3aH4,S4aH3,S4aH4,S5b0729h12,S5b0729h15,S6c1029h11,S6c1102h12,S6c1103h11,S4aH2,S5b0723h10,S5b0724h17,S5b0725h08,S5b0725h17,S5b0726h16,S6c1029h16,S6c1101h09,S6c1104h18,S2aH6,S3aH5,S5aH3,S5b0723h13,S5b0723h18,S5b0726h10,S5b0727h15,S6c1029h12,S6c1031h16,S6c1101h07,S6c1104h13,S6c1104h15,S1aH6,S5b0724h09,S5b0724h13,S5b0725h11,S5b0727h11,S6c1029h09,S6c1029h17,S6c1030h17,S6c1031h17,S6c1101h13,S6c1101h17,S6c1103h16</t>
-  </si>
-  <si>
-    <t>S5b0726h03,S5b0726h23,S5b0728h22,S5b0729h06,S6c1029h05,S6c1030h01,S6c1030h21,S6c1031h06,S6c1101h02,S6c1104h22,S5b0723h24,S5b0724h01,S5b0726h21,S5b0729h05,S6c1030h04,S6c1030h19,S6c1031h01,S6c1102h19,S6c1104h01,S3aH1,S5b0727h01,S5b0727h03,S5b0728h02,S5b0729h19,S6c1101h06,S6c1101h21,S6c1102h02,S6c1102h21,S6c1103h06,S6c1104h19,S6c1104h23,S4aH8,S5b0723h21,S5b0725h06,S6c1031h03,S6c1104h03,S2aH8,S5b0723h04,S5b0723h05,S5b0724h04,S5b0724h24,S5b0726h24,S5b0727h05,S5b0728h01,S5b0728h19,S6c1031h02,S6c1031h05,S6c1101h01,S6c1101h04,S6c1102h03,S6c1103h22,S6c1103h24,S5b0725h04,S5b0726h06,S5b0726h20,S5b0727h06,S5b0729h01,S5b0729h04,S6c1029h24,S6c1031h04,S5b0723h06,S5b0725h02,S5b0725h24,S5b0728h06,S6c1029h21,S6c1030h22,S6c1101h05,S6c1103h20,S6c1104h06,S5b0723h03,S5b0725h05,S5b0725h20,S5b0725h21,S5b0729h03,S5b0729h20,S6c1029h02,S6c1029h19,S6c1030h03,S6c1031h19,S6c1031h23,S6c1103h01,S6c1104h04,S6c1104h24,S3aH8,S5b0723h20,S5b0724h21,S5b0725h19,S5b0725h23,S5b0727h02,S5b0727h04,S5b0729h02,S6c1029h03,S6c1030h23,S6c1031h21,S6c1101h03,S6c1103h03,S6c1103h05,S1aH1,S5b0723h23,S5b0724h03,S5b0726h02,S5b0727h24,S5b0728h23,S6c1029h01,S6c1029h04,S6c1029h23,S6c1030h02,S6c1102h06,S6c1103h04,S4aH1,S5b0723h01,S5b0726h22,S5b0727h22,S5b0728h04,S5b0728h20,S5b0728h21,S5b0729h23,S6aH1,S6c1030h06,S6c1030h24,S6c1031h24,S6c1102h04,S6c1102h05,S6c1103h02,S6c1103h19,S6c1103h21,S5b0723h02,S5b0724h02,S5b0724h20,S5b0725h22,S5b0727h20,S5b0728h24,S5b0729h22,S6c1029h06,S6c1029h22,S6c1102h01,S6c1103h23,S6c1104h02,S6c1104h20,S5b0725h01,S5b0727h21,S5b0728h05,S5b0729h24,S6c1030h20,S6c1101h23,S6c1102h20,S6c1104h05,S2aH1,S5aH8,S5b0723h22,S5b0724h05,S5b0724h19,S6c1029h20,S6c1031h20,S6c1031h22,S6c1101h22,S6c1102h23,S6c1102h24,S6c1104h21,S1aH8,S5aH1,S5b0723h19,S5b0724h22,S5b0724h23,S5b0725h03,S5b0726h19,S5b0727h19,S5b0727h23,S5b0728h03,S6c1030h05,S6c1101h19,S6c1101h20,S5b0724h06,S5b0726h01,S5b0726h04,S5b0726h05,S5b0729h21,S6aH8,S6c1101h24,S6c1102h22</t>
+    <t>S1aH6,S5b0724h09,S5b0724h13,S5b0725h11,S5b0727h11,S6c1029h09,S6c1029h17,S6c1030h17,S6c1031h17,S6c1101h13,S6c1101h17,S6c1103h16,S5b0723h12,S5b0724h10,S5b0724h12,S5b0725h14,S5b0728h18,S6c1029h07,S6c1030h13,S6c1103h17,S1aH4,S2aH2,S4aH6,S5b0725h16,S5b0727h09,S5b0727h13,S5b0729h08,S6c1030h09,S6c1031h13,S6c1102h13,S6c1102h16,S6c1103h07,S2aH6,S3aH5,S5aH3,S5b0723h13,S5b0723h18,S5b0726h10,S5b0727h15,S6c1029h12,S6c1031h16,S6c1101h07,S6c1104h13,S6c1104h15,S5b0723h08,S5b0723h15,S5b0724h07,S5b0727h07,S5b0728h07,S6aH5,S6c1029h10,S6c1031h08,S6c1103h08,S6c1103h10,S6c1103h12,S6c1103h18,S2aH7,S3aH4,S4aH3,S4aH4,S5b0729h12,S5b0729h15,S6c1029h11,S6c1102h12,S6c1103h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0723h14,S5b0724h18,S5b0726h11,S5b0726h13,S5b0726h18,S5b0729h09,S5b0729h13,S6aH6,S6c1030h11,S6c1101h15,S6c1104h09,S5b0723h16,S5b0724h08,S5b0724h14,S5b0724h15,S5b0726h15,S5b0728h14,S6aH7,S6c1030h12,S6c1031h11,S6c1102h08,S1aH3,S5b0723h07,S5b0725h07,S5b0725h09,S5b0727h10,S5b0727h14,S5b0728h15,S5b0729h18,S6c1029h15,S6c1031h12,S6c1031h15,S6c1101h16,S6c1102h10,S6c1103h14,S5aH4,S5b0723h17,S5b0725h10,S5b0725h18,S5b0726h12,S5b0728h13,S6aH3,S6aH4,S6c1029h14,S6c1030h08,S6c1030h16,S6c1102h07,S6c1102h09,S6c1102h11,S6c1102h18,S6c1103h15,S6c1104h12,S3aH7,S5b0725h13,S5b0726h14,S5b0728h11,S5b0728h12,S5b0729h07,S6c1030h14,S6c1031h18,S6c1101h08,S6c1102h15,S6c1103h13,S6c1104h11,S3aH2,S5b0723h09,S5b0724h11,S5b0724h16,S5b0725h12,S5b0725h15,S5b0726h17,S5b0727h17,S5b0727h18,S5b0729h14,S6c1030h15,S6c1030h18,S6c1101h18,S6c1103h09,S6c1104h08,S6c1104h10,S4aH5,S5b0727h08,S5b0727h12,S5b0728h10,S5b0728h17,S5b0729h10,S5b0729h16,S5b0729h17,S6c1029h08,S6c1030h10,S6c1031h10,S6c1102h14,S6c1102h17,S6c1104h14,S3aH3,S5b0723h11,S5b0728h08,S5b0728h09,S5b0729h11,S6c1029h18,S6c1030h07,S6c1031h07,S6c1031h09,S6c1101h10,S6c1101h12,S6c1104h07,S6c1104h16,S4aH2,S5b0723h10,S5b0724h17,S5b0725h08,S5b0725h17,S5b0726h16,S6c1029h16,S6c1101h09,S6c1104h18,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0726h07,S5b0726h08,S5b0726h09,S5b0727h16,S5b0728h16,S6aH2,S6c1029h13,S6c1031h14,S6c1101h11,S6c1101h14,S6c1104h17</t>
+  </si>
+  <si>
+    <t>S5b0724h06,S5b0726h01,S5b0726h04,S5b0726h05,S5b0729h21,S6aH8,S6c1101h24,S6c1102h22,S1aH1,S5b0723h23,S5b0724h03,S5b0726h02,S5b0727h24,S5b0728h23,S6c1029h01,S6c1029h04,S6c1029h23,S6c1030h02,S6c1102h06,S6c1103h04,S4aH1,S5b0723h01,S5b0726h22,S5b0727h22,S5b0728h04,S5b0728h20,S5b0728h21,S5b0729h23,S6aH1,S6c1030h06,S6c1030h24,S6c1031h24,S6c1102h04,S6c1102h05,S6c1103h02,S6c1103h19,S6c1103h21,S1aH8,S5aH1,S5b0723h19,S5b0724h22,S5b0724h23,S5b0725h03,S5b0726h19,S5b0727h19,S5b0727h23,S5b0728h03,S6c1030h05,S6c1101h19,S6c1101h20,S4aH8,S5b0723h21,S5b0725h06,S6c1031h03,S6c1104h03,S5b0725h01,S5b0727h21,S5b0728h05,S5b0729h24,S6c1030h20,S6c1101h23,S6c1102h20,S6c1104h05,S5b0723h02,S5b0724h02,S5b0724h20,S5b0725h22,S5b0727h20,S5b0728h24,S5b0729h22,S6c1029h06,S6c1029h22,S6c1102h01,S6c1103h23,S6c1104h02,S6c1104h20,S3aH1,S5b0727h01,S5b0727h03,S5b0728h02,S5b0729h19,S6c1101h06,S6c1101h21,S6c1102h02,S6c1102h21,S6c1103h06,S6c1104h19,S6c1104h23,S5b0726h03,S5b0726h23,S5b0728h22,S5b0729h06,S6c1029h05,S6c1030h01,S6c1030h21,S6c1031h06,S6c1101h02,S6c1104h22,S5b0725h04,S5b0726h06,S5b0726h20,S5b0727h06,S5b0729h01,S5b0729h04,S6c1029h24,S6c1031h04,S2aH8,S5b0723h04,S5b0723h05,S5b0724h04,S5b0724h24,S5b0726h24,S5b0727h05,S5b0728h01,S5b0728h19,S6c1031h02,S6c1031h05,S6c1101h01,S6c1101h04,S6c1102h03,S6c1103h22,S6c1103h24,S3aH8,S5b0723h20,S5b0724h21,S5b0725h19,S5b0725h23,S5b0727h02,S5b0727h04,S5b0729h02,S6c1029h03,S6c1030h23,S6c1031h21,S6c1101h03,S6c1103h03,S6c1103h05,S5b0723h24,S5b0724h01,S5b0726h21,S5b0729h05,S6c1030h04,S6c1030h19,S6c1031h01,S6c1102h19,S6c1104h01,S5b0723h03,S5b0725h05,S5b0725h20,S5b0725h21,S5b0729h03,S5b0729h20,S6c1029h02,S6c1029h19,S6c1030h03,S6c1031h19,S6c1031h23,S6c1103h01,S6c1104h04,S6c1104h24,S2aH1,S5aH8,S5b0723h22,S5b0724h05,S5b0724h19,S6c1029h20,S6c1031h20,S6c1031h22,S6c1101h22,S6c1102h23,S6c1102h24,S6c1104h21,S5b0723h06,S5b0725h02,S5b0725h24,S5b0728h06,S6c1029h21,S6c1030h22,S6c1101h05,S6c1103h20,S6c1104h06</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S5b0726h03,S5b0726h23,S5b0728h22,S5b0729h06,S6c1029h05,S6c1030h01,S6c1030h21,S6c1031h06,S6c1101h02,S6c1104h22,S5b0723h24,S5b0724h01,S5b0726h21,S5b0729h05,S6c1030h04,S6c1030h19,S6c1031h01,S6c1102h19,S6c1104h01,S3aH1,S5b0727h01,S5b0727h03,S5b0728h02,S5b0729h19,S6c1101h06,S6c1101h21,S6c1102h02,S6c1102h21,S6c1103h06,S6c1104h19,S6c1104h23,S4aH8,S5b0723h21,S5b0725h06,S6c1031h03,S6c1104h03,S2aH8,S5b0723h04,S5b0723h05,S5b0724h04,S5b0724h24,S5b0726h24,S5b0727h05,S5b0728h01,S5b0728h19,S6c1031h02,S6c1031h05,S6c1101h01,S6c1101h04,S6c1102h03,S6c1103h22,S6c1103h24,S5b0725h04,S5b0726h06,S5b0726h20,S5b0727h06,S5b0729h01,S5b0729h04,S6c1029h24,S6c1031h04,S5b0723h06,S5b0725h02,S5b0725h24,S5b0728h06,S6c1029h21,S6c1030h22,S6c1101h05,S6c1103h20,S6c1104h06,S5b0723h03,S5b0725h05,S5b0725h20,S5b0725h21,S5b0729h03,S5b0729h20,S6c1029h02,S6c1029h19,S6c1030h03,S6c1031h19,S6c1031h23,S6c1103h01,S6c1104h04,S6c1104h24,S3aH8,S5b0723h20,S5b0724h21,S5b0725h19,S5b0725h23,S5b0727h02,S5b0727h04,S5b0729h02,S6c1029h03,S6c1030h23,S6c1031h21,S6c1101h03,S6c1103h03,S6c1103h05,S1aH1,S5b0723h23,S5b0724h03,S5b0726h02,S5b0727h24,S5b0728h23,S6c1029h01,S6c1029h04,S6c1029h23,S6c1030h02,S6c1102h06,S6c1103h04,S4aH1,S5b0723h01,S5b0726h22,S5b0727h22,S5b0728h04,S5b0728h20,S5b0728h21,S5b0729h23,S6aH1,S6c1030h06,S6c1030h24,S6c1031h24,S6c1102h04,S6c1102h05,S6c1103h02,S6c1103h19,S6c1103h21,S5b0723h02,S5b0724h02,S5b0724h20,S5b0725h22,S5b0727h20,S5b0728h24,S5b0729h22,S6c1029h06,S6c1029h22,S6c1102h01,S6c1103h23,S6c1104h02,S6c1104h20,S5b0725h01,S5b0727h21,S5b0728h05,S5b0729h24,S6c1030h20,S6c1101h23,S6c1102h20,S6c1104h05,S2aH1,S5aH8,S5b0723h22,S5b0724h05,S5b0724h19,S6c1029h20,S6c1031h20,S6c1031h22,S6c1101h22,S6c1102h23,S6c1102h24,S6c1104h21,S1aH8,S5aH1,S5b0723h19,S5b0724h22,S5b0724h23,S5b0725h03,S5b0726h19,S5b0727h19,S5b0727h23,S5b0728h03,S6c1030h05,S6c1101h19,S6c1101h20,S5b0724h06,S5b0726h01,S5b0726h04,S5b0726h05,S5b0729h21,S6aH8,S6c1101h24,S6c1102h22</v>
+        <v>S5b0724h06,S5b0726h01,S5b0726h04,S5b0726h05,S5b0729h21,S6aH8,S6c1101h24,S6c1102h22,S1aH1,S5b0723h23,S5b0724h03,S5b0726h02,S5b0727h24,S5b0728h23,S6c1029h01,S6c1029h04,S6c1029h23,S6c1030h02,S6c1102h06,S6c1103h04,S4aH1,S5b0723h01,S5b0726h22,S5b0727h22,S5b0728h04,S5b0728h20,S5b0728h21,S5b0729h23,S6aH1,S6c1030h06,S6c1030h24,S6c1031h24,S6c1102h04,S6c1102h05,S6c1103h02,S6c1103h19,S6c1103h21,S1aH8,S5aH1,S5b0723h19,S5b0724h22,S5b0724h23,S5b0725h03,S5b0726h19,S5b0727h19,S5b0727h23,S5b0728h03,S6c1030h05,S6c1101h19,S6c1101h20,S4aH8,S5b0723h21,S5b0725h06,S6c1031h03,S6c1104h03,S5b0725h01,S5b0727h21,S5b0728h05,S5b0729h24,S6c1030h20,S6c1101h23,S6c1102h20,S6c1104h05,S5b0723h02,S5b0724h02,S5b0724h20,S5b0725h22,S5b0727h20,S5b0728h24,S5b0729h22,S6c1029h06,S6c1029h22,S6c1102h01,S6c1103h23,S6c1104h02,S6c1104h20,S3aH1,S5b0727h01,S5b0727h03,S5b0728h02,S5b0729h19,S6c1101h06,S6c1101h21,S6c1102h02,S6c1102h21,S6c1103h06,S6c1104h19,S6c1104h23,S5b0726h03,S5b0726h23,S5b0728h22,S5b0729h06,S6c1029h05,S6c1030h01,S6c1030h21,S6c1031h06,S6c1101h02,S6c1104h22,S5b0725h04,S5b0726h06,S5b0726h20,S5b0727h06,S5b0729h01,S5b0729h04,S6c1029h24,S6c1031h04,S2aH8,S5b0723h04,S5b0723h05,S5b0724h04,S5b0724h24,S5b0726h24,S5b0727h05,S5b0728h01,S5b0728h19,S6c1031h02,S6c1031h05,S6c1101h01,S6c1101h04,S6c1102h03,S6c1103h22,S6c1103h24,S3aH8,S5b0723h20,S5b0724h21,S5b0725h19,S5b0725h23,S5b0727h02,S5b0727h04,S5b0729h02,S6c1029h03,S6c1030h23,S6c1031h21,S6c1101h03,S6c1103h03,S6c1103h05,S5b0723h24,S5b0724h01,S5b0726h21,S5b0729h05,S6c1030h04,S6c1030h19,S6c1031h01,S6c1102h19,S6c1104h01,S5b0723h03,S5b0725h05,S5b0725h20,S5b0725h21,S5b0729h03,S5b0729h20,S6c1029h02,S6c1029h19,S6c1030h03,S6c1031h19,S6c1031h23,S6c1103h01,S6c1104h04,S6c1104h24,S2aH1,S5aH8,S5b0723h22,S5b0724h05,S5b0724h19,S6c1029h20,S6c1031h20,S6c1031h22,S6c1101h22,S6c1102h23,S6c1102h24,S6c1104h21,S5b0723h06,S5b0725h02,S5b0725h24,S5b0728h06,S6c1029h21,S6c1030h22,S6c1101h05,S6c1103h20,S6c1104h06</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S5b0723h07,S5b0725h07,S5b0725h09,S5b0727h10,S5b0727h14,S5b0728h15,S5b0729h18,S6c1029h15,S6c1031h12,S6c1031h15,S6c1101h16,S6c1102h10,S6c1103h14,S4aH5,S5b0727h08,S5b0727h12,S5b0728h10,S5b0728h17,S5b0729h10,S5b0729h16,S5b0729h17,S6c1029h08,S6c1030h10,S6c1031h10,S6c1102h14,S6c1102h17,S6c1104h14,S5b0723h16,S5b0724h08,S5b0724h14,S5b0724h15,S5b0726h15,S5b0728h14,S6aH7,S6c1030h12,S6c1031h11,S6c1102h08,S5b0723h08,S5b0723h15,S5b0724h07,S5b0727h07,S5b0728h07,S6aH5,S6c1029h10,S6c1031h08,S6c1103h08,S6c1103h10,S6c1103h12,S6c1103h18,S3aH7,S5b0725h13,S5b0726h14,S5b0728h11,S5b0728h12,S5b0729h07,S6c1030h14,S6c1031h18,S6c1101h08,S6c1102h15,S6c1103h13,S6c1104h11,S5aH4,S5b0723h17,S5b0725h10,S5b0725h18,S5b0726h12,S5b0728h13,S6aH3,S6aH4,S6c1029h14,S6c1030h08,S6c1030h16,S6c1102h07,S6c1102h09,S6c1102h11,S6c1102h18,S6c1103h15,S6c1104h12,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0726h07,S5b0726h08,S5b0726h09,S5b0727h16,S5b0728h16,S6aH2,S6c1029h13,S6c1031h14,S6c1101h11,S6c1101h14,S6c1104h17,S3aH3,S5b0723h11,S5b0728h08,S5b0728h09,S5b0729h11,S6c1029h18,S6c1030h07,S6c1031h07,S6c1031h09,S6c1101h10,S6c1101h12,S6c1104h07,S6c1104h16,S3aH2,S5b0723h09,S5b0724h11,S5b0724h16,S5b0725h12,S5b0725h15,S5b0726h17,S5b0727h17,S5b0727h18,S5b0729h14,S6c1030h15,S6c1030h18,S6c1101h18,S6c1103h09,S6c1104h08,S6c1104h10,S5b0723h12,S5b0724h10,S5b0724h12,S5b0725h14,S5b0728h18,S6c1029h07,S6c1030h13,S6c1103h17,S1aH4,S2aH2,S4aH6,S5b0725h16,S5b0727h09,S5b0727h13,S5b0729h08,S6c1030h09,S6c1031h13,S6c1102h13,S6c1102h16,S6c1103h07,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0723h14,S5b0724h18,S5b0726h11,S5b0726h13,S5b0726h18,S5b0729h09,S5b0729h13,S6aH6,S6c1030h11,S6c1101h15,S6c1104h09,S2aH7,S3aH4,S4aH3,S4aH4,S5b0729h12,S5b0729h15,S6c1029h11,S6c1102h12,S6c1103h11,S4aH2,S5b0723h10,S5b0724h17,S5b0725h08,S5b0725h17,S5b0726h16,S6c1029h16,S6c1101h09,S6c1104h18,S2aH6,S3aH5,S5aH3,S5b0723h13,S5b0723h18,S5b0726h10,S5b0727h15,S6c1029h12,S6c1031h16,S6c1101h07,S6c1104h13,S6c1104h15,S1aH6,S5b0724h09,S5b0724h13,S5b0725h11,S5b0727h11,S6c1029h09,S6c1029h17,S6c1030h17,S6c1031h17,S6c1101h13,S6c1101h17,S6c1103h16</v>
+        <v>S1aH6,S5b0724h09,S5b0724h13,S5b0725h11,S5b0727h11,S6c1029h09,S6c1029h17,S6c1030h17,S6c1031h17,S6c1101h13,S6c1101h17,S6c1103h16,S5b0723h12,S5b0724h10,S5b0724h12,S5b0725h14,S5b0728h18,S6c1029h07,S6c1030h13,S6c1103h17,S1aH4,S2aH2,S4aH6,S5b0725h16,S5b0727h09,S5b0727h13,S5b0729h08,S6c1030h09,S6c1031h13,S6c1102h13,S6c1102h16,S6c1103h07,S2aH6,S3aH5,S5aH3,S5b0723h13,S5b0723h18,S5b0726h10,S5b0727h15,S6c1029h12,S6c1031h16,S6c1101h07,S6c1104h13,S6c1104h15,S5b0723h08,S5b0723h15,S5b0724h07,S5b0727h07,S5b0728h07,S6aH5,S6c1029h10,S6c1031h08,S6c1103h08,S6c1103h10,S6c1103h12,S6c1103h18,S2aH7,S3aH4,S4aH3,S4aH4,S5b0729h12,S5b0729h15,S6c1029h11,S6c1102h12,S6c1103h11,S1aH2,S1aH7,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5b0723h14,S5b0724h18,S5b0726h11,S5b0726h13,S5b0726h18,S5b0729h09,S5b0729h13,S6aH6,S6c1030h11,S6c1101h15,S6c1104h09,S5b0723h16,S5b0724h08,S5b0724h14,S5b0724h15,S5b0726h15,S5b0728h14,S6aH7,S6c1030h12,S6c1031h11,S6c1102h08,S1aH3,S5b0723h07,S5b0725h07,S5b0725h09,S5b0727h10,S5b0727h14,S5b0728h15,S5b0729h18,S6c1029h15,S6c1031h12,S6c1031h15,S6c1101h16,S6c1102h10,S6c1103h14,S5aH4,S5b0723h17,S5b0725h10,S5b0725h18,S5b0726h12,S5b0728h13,S6aH3,S6aH4,S6c1029h14,S6c1030h08,S6c1030h16,S6c1102h07,S6c1102h09,S6c1102h11,S6c1102h18,S6c1103h15,S6c1104h12,S3aH7,S5b0725h13,S5b0726h14,S5b0728h11,S5b0728h12,S5b0729h07,S6c1030h14,S6c1031h18,S6c1101h08,S6c1102h15,S6c1103h13,S6c1104h11,S3aH2,S5b0723h09,S5b0724h11,S5b0724h16,S5b0725h12,S5b0725h15,S5b0726h17,S5b0727h17,S5b0727h18,S5b0729h14,S6c1030h15,S6c1030h18,S6c1101h18,S6c1103h09,S6c1104h08,S6c1104h10,S4aH5,S5b0727h08,S5b0727h12,S5b0728h10,S5b0728h17,S5b0729h10,S5b0729h16,S5b0729h17,S6c1029h08,S6c1030h10,S6c1031h10,S6c1102h14,S6c1102h17,S6c1104h14,S3aH3,S5b0723h11,S5b0728h08,S5b0728h09,S5b0729h11,S6c1029h18,S6c1030h07,S6c1031h07,S6c1031h09,S6c1101h10,S6c1101h12,S6c1104h07,S6c1104h16,S4aH2,S5b0723h10,S5b0724h17,S5b0725h08,S5b0725h17,S5b0726h16,S6c1029h16,S6c1101h09,S6c1104h18,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S5b0726h07,S5b0726h08,S5b0726h09,S5b0727h16,S5b0728h16,S6aH2,S6c1029h13,S6c1031h14,S6c1101h11,S6c1101h14,S6c1104h17</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3728,7 +3728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B48584-267B-4837-BAF2-8C4138A4E2E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4F11D7-8159-499D-A028-F6C9663D6D4C}">
   <dimension ref="B2:F347"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6551,7 +6551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44D3ED8-3795-458B-AC34-D4A0FE565DA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FA01B7-4C77-4DCB-9335-BD3721B2CF0E}">
   <dimension ref="B2:O387"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6630,10 +6630,10 @@
         <v>818</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.26113640777746605</v>
+        <v>0.13916571354582533</v>
       </c>
       <c r="O4" t="s">
         <v>829</v>
@@ -6700,10 +6700,10 @@
         <v>818</v>
       </c>
       <c r="M6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>9.2837566628541826E-2</v>
+        <v>0.26113640777746605</v>
       </c>
       <c r="O6" t="s">
         <v>829</v>
@@ -6770,10 +6770,10 @@
         <v>818</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N8">
-        <v>0.42249509052849649</v>
+        <v>9.2837566628541826E-2</v>
       </c>
       <c r="O8" t="s">
         <v>829</v>
@@ -6805,10 +6805,10 @@
         <v>818</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N9">
-        <v>0.13916571354582533</v>
+        <v>0.42249509052849654</v>
       </c>
       <c r="O9" t="s">
         <v>829</v>
@@ -16648,7 +16648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD294884-9445-4691-8779-19F30ADF03BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083D6F8A-4922-499D-972F-1DB1658306CE}">
   <dimension ref="B2:O771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
